--- a/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Article Number</t>
   </si>
@@ -219,6 +219,27 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
 </sst>
 </file>
@@ -587,7 +608,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -598,7 +619,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -609,7 +630,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -620,7 +641,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
   <si>
     <t>Article Number</t>
   </si>
@@ -240,6 +240,99 @@
   </si>
   <si>
     <t>82</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
 </sst>
 </file>
@@ -608,7 +701,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -619,7 +712,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -630,7 +723,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -641,7 +734,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
   <si>
     <t>Article Number</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>65</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -701,7 +710,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -712,7 +721,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -723,7 +732,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -734,7 +743,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="114">
   <si>
     <t>Article Number</t>
   </si>
@@ -342,6 +342,27 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
 </sst>
 </file>
@@ -710,7 +731,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -721,7 +742,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -732,7 +753,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -743,7 +764,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
   <si>
     <t>Article Number</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>81</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -742,7 +745,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -753,7 +756,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -764,7 +767,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
+++ b/Valid_ImportTemplate/Country WSP Price 2022 Spring-Summer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
   <si>
     <t>Article Number</t>
   </si>
@@ -366,6 +366,21 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
 </sst>
 </file>
@@ -734,7 +749,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -745,7 +760,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -756,7 +771,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -767,7 +782,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
